--- a/biology/Botanique/Peridinium/Peridinium.xlsx
+++ b/biology/Botanique/Peridinium/Peridinium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Peridinium est un genre de dinoflagellés de la famille des Peridiniaceae.
 L'organisme mesure de 30 à 70 μm de diamètre et est recouvert de plaques thécales. L'un des flagelles est enroulé, l'autre sert au déplacement.
@@ -512,9 +524,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon AlgaeBase                                           (7 déc. 2010)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon AlgaeBase                                           (7 déc. 2010) :
 Peridinium abscissum O.Zacharias (Sans vérification)
 Peridinium aciculiferum Lemmermann
 Peridinium acutangulum (Lemmermann) Lemmermann (Sans vérification)
@@ -899,7 +913,7 @@
 Peridinium witoslawi E.Lindemann (Sans vérification)
 Peridinium woloszynskae W.Conrad (Sans vérification)
 Peridinium yserense A.F.Meunier (Sans vérification)
-Selon World Register of Marine Species                               (7 déc. 2010)[2] :
+Selon World Register of Marine Species                               (7 déc. 2010) :
 Peridinium aciculiferum Lemmermann, 1900
 Peridinium balticum (Levander) Lemmermann
 Peridinium bipes Stein
@@ -936,7 +950,7 @@
 Peridinium willei Huitfeld-Kaas
 Peridinium wisconsinense Eddy, 1930
 Peridinium vexans G. Murray &amp; F.G. Whitting
-Selon ITIS      (7 déc. 2010)[3] :
+Selon ITIS      (7 déc. 2010) :
 Peridinium achromaticum (Stokes) Lemmerman
 Peridinium aciculiferum Lemm
 Peridinium adeliense Balech, 1958
